--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>Serie</t>
   </si>
@@ -203,6 +203,66 @@
   </si>
   <si>
     <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -560,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1829,6 +1889,442 @@
         <v>1.03</v>
       </c>
     </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>200000</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>100000</v>
+      </c>
+      <c r="C59">
+        <v>210000</v>
+      </c>
+      <c r="D59">
+        <v>100000</v>
+      </c>
+      <c r="E59">
+        <v>90000</v>
+      </c>
+      <c r="F59">
+        <v>10000</v>
+      </c>
+      <c r="G59">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>100000</v>
+      </c>
+      <c r="C60">
+        <v>331000</v>
+      </c>
+      <c r="D60">
+        <v>50000</v>
+      </c>
+      <c r="E60">
+        <v>10000</v>
+      </c>
+      <c r="F60">
+        <v>40000</v>
+      </c>
+      <c r="G60">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>100000</v>
+      </c>
+      <c r="C61">
+        <v>323000</v>
+      </c>
+      <c r="D61">
+        <v>50000</v>
+      </c>
+      <c r="E61">
+        <v>42000</v>
+      </c>
+      <c r="F61">
+        <v>8000</v>
+      </c>
+      <c r="G61">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>100000</v>
+      </c>
+      <c r="C62">
+        <v>186000</v>
+      </c>
+      <c r="D62">
+        <v>50000</v>
+      </c>
+      <c r="E62">
+        <v>39000</v>
+      </c>
+      <c r="F62">
+        <v>11000</v>
+      </c>
+      <c r="G62">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>100000</v>
+      </c>
+      <c r="C63">
+        <v>251000</v>
+      </c>
+      <c r="D63">
+        <v>50000</v>
+      </c>
+      <c r="E63">
+        <v>39000</v>
+      </c>
+      <c r="F63">
+        <v>11000</v>
+      </c>
+      <c r="G63">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>100000</v>
+      </c>
+      <c r="C64">
+        <v>345000</v>
+      </c>
+      <c r="D64">
+        <v>100000</v>
+      </c>
+      <c r="E64">
+        <v>85000</v>
+      </c>
+      <c r="F64">
+        <v>15000</v>
+      </c>
+      <c r="G64">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>100000</v>
+      </c>
+      <c r="C65">
+        <v>289000</v>
+      </c>
+      <c r="D65">
+        <v>100000</v>
+      </c>
+      <c r="E65">
+        <v>71000</v>
+      </c>
+      <c r="F65">
+        <v>29000</v>
+      </c>
+      <c r="G65">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>100000</v>
+      </c>
+      <c r="C66">
+        <v>311000</v>
+      </c>
+      <c r="D66">
+        <v>100000</v>
+      </c>
+      <c r="E66">
+        <v>69000</v>
+      </c>
+      <c r="F66">
+        <v>31000</v>
+      </c>
+      <c r="G66">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>100000</v>
+      </c>
+      <c r="C67">
+        <v>198000</v>
+      </c>
+      <c r="D67">
+        <v>50000</v>
+      </c>
+      <c r="E67">
+        <v>22000</v>
+      </c>
+      <c r="F67">
+        <v>28000</v>
+      </c>
+      <c r="G67">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>100000</v>
+      </c>
+      <c r="C68">
+        <v>256000</v>
+      </c>
+      <c r="D68">
+        <v>100000</v>
+      </c>
+      <c r="E68">
+        <v>74000</v>
+      </c>
+      <c r="F68">
+        <v>26000</v>
+      </c>
+      <c r="G68">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>100000</v>
+      </c>
+      <c r="C69">
+        <v>201000</v>
+      </c>
+      <c r="D69">
+        <v>100000</v>
+      </c>
+      <c r="E69">
+        <v>69000</v>
+      </c>
+      <c r="F69">
+        <v>31000</v>
+      </c>
+      <c r="G69">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>100000</v>
+      </c>
+      <c r="C70">
+        <v>293000</v>
+      </c>
+      <c r="D70">
+        <v>100000</v>
+      </c>
+      <c r="E70">
+        <v>67000</v>
+      </c>
+      <c r="F70">
+        <v>33000</v>
+      </c>
+      <c r="G70">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>100000</v>
+      </c>
+      <c r="C71">
+        <v>205000</v>
+      </c>
+      <c r="D71">
+        <v>100000</v>
+      </c>
+      <c r="E71">
+        <v>75000</v>
+      </c>
+      <c r="F71">
+        <v>25000</v>
+      </c>
+      <c r="G71">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>100000</v>
+      </c>
+      <c r="C72">
+        <v>222000</v>
+      </c>
+      <c r="D72">
+        <v>100000</v>
+      </c>
+      <c r="E72">
+        <v>93000</v>
+      </c>
+      <c r="F72">
+        <v>7000</v>
+      </c>
+      <c r="G72">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>100000</v>
+      </c>
+      <c r="C73">
+        <v>206000</v>
+      </c>
+      <c r="D73">
+        <v>100000</v>
+      </c>
+      <c r="E73">
+        <v>94000</v>
+      </c>
+      <c r="F73">
+        <v>6000</v>
+      </c>
+      <c r="G73">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>100000</v>
+      </c>
+      <c r="C74">
+        <v>189000</v>
+      </c>
+      <c r="D74">
+        <v>50000</v>
+      </c>
+      <c r="E74">
+        <v>41000</v>
+      </c>
+      <c r="F74">
+        <v>9000</v>
+      </c>
+      <c r="G74">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>100000</v>
+      </c>
+      <c r="C75">
+        <v>255000</v>
+      </c>
+      <c r="D75">
+        <v>100000</v>
+      </c>
+      <c r="E75">
+        <v>95000</v>
+      </c>
+      <c r="F75">
+        <v>5000</v>
+      </c>
+      <c r="G75">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>100000</v>
+      </c>
+      <c r="C76">
+        <v>111000</v>
+      </c>
+      <c r="D76">
+        <v>50000</v>
+      </c>
+      <c r="E76">
+        <v>44000</v>
+      </c>
+      <c r="F76">
+        <v>6000</v>
+      </c>
+      <c r="G76">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>100000</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Serie</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2325,6 +2328,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>100000</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Serie</t>
   </si>
@@ -266,6 +266,27 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -623,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2339,6 +2360,131 @@
         <v>0</v>
       </c>
     </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>100000</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>100000</v>
+      </c>
+      <c r="C80">
+        <v>275000</v>
+      </c>
+      <c r="D80">
+        <v>100000</v>
+      </c>
+      <c r="E80">
+        <v>100000</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>100000</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>50000</v>
+      </c>
+      <c r="C82">
+        <v>140000</v>
+      </c>
+      <c r="D82">
+        <v>50000</v>
+      </c>
+      <c r="E82">
+        <v>45000</v>
+      </c>
+      <c r="F82">
+        <v>5000</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>50000</v>
+      </c>
+      <c r="C83">
+        <v>50000</v>
+      </c>
+      <c r="D83">
+        <v>50000</v>
+      </c>
+      <c r="E83">
+        <v>40000</v>
+      </c>
+      <c r="F83">
+        <v>10000</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>50000</v>
+      </c>
+      <c r="C84">
+        <v>80000</v>
+      </c>
+      <c r="D84">
+        <v>50000</v>
+      </c>
+      <c r="E84">
+        <v>40000</v>
+      </c>
+      <c r="F84">
+        <v>10000</v>
+      </c>
+      <c r="G84">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>50000</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Serie</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2485,6 +2488,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>50000</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Serie</t>
   </si>
@@ -290,6 +290,33 @@
   </si>
   <si>
     <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -647,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2499,6 +2526,141 @@
         <v>0</v>
       </c>
     </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>50000</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>50000</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>50000</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>50000</v>
+      </c>
+      <c r="C90">
+        <v>110000</v>
+      </c>
+      <c r="D90">
+        <v>25000</v>
+      </c>
+      <c r="E90">
+        <v>25000</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>50000</v>
+      </c>
+      <c r="C91">
+        <v>110000</v>
+      </c>
+      <c r="D91">
+        <v>25000</v>
+      </c>
+      <c r="E91">
+        <v>20000</v>
+      </c>
+      <c r="F91">
+        <v>5000</v>
+      </c>
+      <c r="G91">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>50000</v>
+      </c>
+      <c r="C92">
+        <v>80000</v>
+      </c>
+      <c r="D92">
+        <v>25000</v>
+      </c>
+      <c r="E92">
+        <v>25000</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>50000</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>50000</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>50000</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>Serie</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
   </si>
 </sst>
 </file>
@@ -674,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2661,6 +2664,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>50000</v>
+      </c>
+      <c r="C96">
+        <v>45000</v>
+      </c>
+      <c r="D96">
+        <v>45000</v>
+      </c>
+      <c r="E96">
+        <v>40000</v>
+      </c>
+      <c r="F96">
+        <v>5000</v>
+      </c>
+      <c r="G96">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>Serie</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2687,6 +2693,28 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>50000</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>50000</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Serie</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2715,6 +2718,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>50000</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Serie</t>
   </si>
@@ -329,6 +329,36 @@
   </si>
   <si>
     <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
   </si>
 </sst>
 </file>
@@ -686,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2696,7 +2726,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>102</v>
       </c>
@@ -2707,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>103</v>
       </c>
@@ -2718,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -2727,6 +2757,212 @@
       </c>
       <c r="D99">
         <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>50000</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>50000</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>50000</v>
+      </c>
+      <c r="C102">
+        <v>100000</v>
+      </c>
+      <c r="D102">
+        <v>50000</v>
+      </c>
+      <c r="E102">
+        <v>40000</v>
+      </c>
+      <c r="F102">
+        <v>10000</v>
+      </c>
+      <c r="G102">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>50000</v>
+      </c>
+      <c r="C103">
+        <v>96000</v>
+      </c>
+      <c r="D103">
+        <v>50000</v>
+      </c>
+      <c r="E103">
+        <v>40000</v>
+      </c>
+      <c r="F103">
+        <v>10000</v>
+      </c>
+      <c r="G103">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>50000</v>
+      </c>
+      <c r="C104">
+        <v>95000</v>
+      </c>
+      <c r="D104">
+        <v>50000</v>
+      </c>
+      <c r="E104">
+        <v>40000</v>
+      </c>
+      <c r="F104">
+        <v>10000</v>
+      </c>
+      <c r="G104">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>50000</v>
+      </c>
+      <c r="C105">
+        <v>90000</v>
+      </c>
+      <c r="D105">
+        <v>50000</v>
+      </c>
+      <c r="E105">
+        <v>40000</v>
+      </c>
+      <c r="F105">
+        <v>10000</v>
+      </c>
+      <c r="G105">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>50000</v>
+      </c>
+      <c r="C106">
+        <v>175000</v>
+      </c>
+      <c r="D106">
+        <v>50000</v>
+      </c>
+      <c r="E106">
+        <v>50000</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>50000</v>
+      </c>
+      <c r="C107">
+        <v>110000</v>
+      </c>
+      <c r="D107">
+        <v>50000</v>
+      </c>
+      <c r="E107">
+        <v>50000</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>50000</v>
+      </c>
+      <c r="C108">
+        <v>94000</v>
+      </c>
+      <c r="D108">
+        <v>50000</v>
+      </c>
+      <c r="E108">
+        <v>44000</v>
+      </c>
+      <c r="F108">
+        <v>6000</v>
+      </c>
+      <c r="G108">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>50000</v>
+      </c>
+      <c r="C109">
+        <v>140000</v>
+      </c>
+      <c r="D109">
+        <v>50000</v>
+      </c>
+      <c r="E109">
+        <v>45000</v>
+      </c>
+      <c r="F109">
+        <v>5000</v>
+      </c>
+      <c r="G109">
+        <v>3.45</v>
       </c>
     </row>
   </sheetData>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Serie</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -716,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2965,6 +2971,52 @@
         <v>3.45</v>
       </c>
     </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>50000</v>
+      </c>
+      <c r="C110">
+        <v>140000</v>
+      </c>
+      <c r="D110">
+        <v>50000</v>
+      </c>
+      <c r="E110">
+        <v>45000</v>
+      </c>
+      <c r="F110">
+        <v>5000</v>
+      </c>
+      <c r="G110">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>50000</v>
+      </c>
+      <c r="C111">
+        <v>93000</v>
+      </c>
+      <c r="D111">
+        <v>50000</v>
+      </c>
+      <c r="E111">
+        <v>42000</v>
+      </c>
+      <c r="F111">
+        <v>8000</v>
+      </c>
+      <c r="G111">
+        <v>3.65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Serie</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3017,6 +3020,29 @@
         <v>3.65</v>
       </c>
     </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112">
+        <v>50000</v>
+      </c>
+      <c r="C112">
+        <v>140000</v>
+      </c>
+      <c r="D112">
+        <v>50000</v>
+      </c>
+      <c r="E112">
+        <v>45000</v>
+      </c>
+      <c r="F112">
+        <v>5000</v>
+      </c>
+      <c r="G112">
+        <v>3.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Serie</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3043,6 +3046,17 @@
         <v>3.6</v>
       </c>
     </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>50000</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>Serie</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3057,6 +3060,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114">
+        <v>50000</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
+++ b/5/6/2/1/1/3 meses 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>Serie</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>08-11-2021</t>
+  </si>
+  <si>
+    <t>09-11-2021</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3071,6 +3074,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
+        <v>50000</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
